--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -594,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1731,12 +1731,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45500</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="n">
+      <c r="C25" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E25" t="inlineStr">
@@ -1749,15 +1747,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>115.40</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>397.10</t>
-        </is>
+      <c r="G25" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>397.1</v>
       </c>
       <c r="I25" t="n">
         <v>281.7</v>
@@ -1783,12 +1777,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="n">
+      <c r="C26" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D26" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E26" t="inlineStr">
@@ -1801,15 +1793,11 @@
           <t>12:39</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>113.70</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
+      <c r="G26" t="n">
+        <v>113.7</v>
+      </c>
+      <c r="H26" t="n">
+        <v>150</v>
       </c>
       <c r="I26" t="n">
         <v>36.3</v>
@@ -1822,6 +1810,110 @@
       </c>
       <c r="L26" t="n">
         <v>44.69208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20350</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>110.70</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>-24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>40</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-960</v>
+      </c>
+      <c r="L27" t="n">
+        <v>39.72175223999999</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>45800</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>357.75</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>314.00</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>-43.75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-656.25</v>
+      </c>
+      <c r="L28" t="n">
+        <v>41.2695078</v>
       </c>
     </row>
   </sheetData>
@@ -1853,7 +1945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,6 +2124,37 @@
         <v>581.7200798899999</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20125.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20175.72</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G6" t="n">
+        <v>44.11999999999971</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4411.999999999971</v>
+      </c>
+      <c r="I6" t="n">
+        <v>580.573851836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -541,24 +541,18 @@
       <c r="C3" s="2" t="n">
         <v>45147</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>45181</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>177.7</v>
       </c>
       <c r="F3" t="n">
-        <v>218.45</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40.75</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>12</v>
       </c>
-      <c r="I3" t="n">
-        <v>489</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>2132.4</v>
       </c>
@@ -608,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,42 +1736,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45500</v>
+        <v>19500</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45182</v>
+        <v>45162</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>14:09</t>
+          <t>13:19</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>115.4</v>
+        <v>26.7</v>
       </c>
       <c r="H25" t="n">
-        <v>397.1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>281.7</v>
+        <v>-22.7</v>
       </c>
       <c r="J25" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K25" t="n">
-        <v>4225.500000000001</v>
+        <v>-1135</v>
       </c>
       <c r="L25" t="n">
-        <v>48.10474617000001</v>
+        <v>35.649236</v>
       </c>
     </row>
     <row r="26">
@@ -1788,42 +1782,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>20300</v>
+        <v>44600</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45182</v>
+        <v>45162</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11:04</t>
+          <t>12:05</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>12:39</t>
+          <t>14:58</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>113.7</v>
+        <v>66.3</v>
       </c>
       <c r="H26" t="n">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>-64.3</v>
       </c>
       <c r="J26" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K26" t="n">
-        <v>1452</v>
+        <v>-964.5</v>
       </c>
       <c r="L26" t="n">
-        <v>44.69208</v>
+        <v>35.4373854</v>
       </c>
     </row>
     <row r="27">
@@ -1834,42 +1828,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>20350</v>
+        <v>19250</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45183</v>
+        <v>45163</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:18</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>12:32</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>110.7</v>
+        <v>101.6</v>
       </c>
       <c r="H27" t="n">
-        <v>86.7</v>
+        <v>114.1</v>
       </c>
       <c r="I27" t="n">
-        <v>-24</v>
+        <v>12.5</v>
       </c>
       <c r="J27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K27" t="n">
-        <v>-960</v>
+        <v>625</v>
       </c>
       <c r="L27" t="n">
-        <v>39.72175223999999</v>
+        <v>43.29070689999999</v>
       </c>
     </row>
     <row r="28">
@@ -1884,38 +1878,38 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>45800</v>
+        <v>44100</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45183</v>
+        <v>45163</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>14:05</t>
+          <t>11:46</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>357.75</v>
+        <v>294.5</v>
       </c>
       <c r="H28" t="n">
-        <v>314</v>
+        <v>255.55</v>
       </c>
       <c r="I28" t="n">
-        <v>-43.75</v>
+        <v>-38.94999999999999</v>
       </c>
       <c r="J28" t="n">
         <v>15</v>
       </c>
       <c r="K28" t="n">
-        <v>-656.25</v>
+        <v>-584.2499999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>41.2695078</v>
+        <v>40.176919485</v>
       </c>
     </row>
     <row r="29">
@@ -1926,42 +1920,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20500</v>
+        <v>19300</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45184</v>
+        <v>45166</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10:51</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>11:32</t>
+          <t>14:24</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>87.59999999999999</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>111.25</v>
+        <v>81</v>
       </c>
       <c r="I29" t="n">
-        <v>23.65000000000001</v>
+        <v>-8.650000000000006</v>
       </c>
       <c r="J29" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K29" t="n">
-        <v>1892</v>
+        <v>-432.5000000000003</v>
       </c>
       <c r="L29" t="n">
-        <v>48.856002</v>
+        <v>40.44702899999999</v>
       </c>
     </row>
     <row r="30">
@@ -1976,38 +1970,38 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>46200</v>
+        <v>44300</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45184</v>
+        <v>45166</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>245.5</v>
+        <v>295.75</v>
       </c>
       <c r="H30" t="n">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="I30" t="n">
-        <v>19.5</v>
+        <v>50.25</v>
       </c>
       <c r="J30" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K30" t="n">
-        <v>585</v>
+        <v>753.75</v>
       </c>
       <c r="L30" t="n">
-        <v>46.03838100000001</v>
+        <v>42.8098617</v>
       </c>
     </row>
     <row r="31">
@@ -2022,38 +2016,38 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46200</v>
+        <v>44500</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45187</v>
+        <v>45167</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>10:18</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>12:14</t>
+          <t>15:06</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>161.8</v>
+        <v>188.8</v>
       </c>
       <c r="H31" t="n">
-        <v>136.8</v>
+        <v>152.8</v>
       </c>
       <c r="I31" t="n">
-        <v>-25</v>
+        <v>-36</v>
       </c>
       <c r="J31" t="n">
         <v>15</v>
       </c>
       <c r="K31" t="n">
-        <v>-375</v>
+        <v>-540</v>
       </c>
       <c r="L31" t="n">
-        <v>37.95716136</v>
+        <v>38.25624455999999</v>
       </c>
     </row>
     <row r="32">
@@ -2068,38 +2062,38 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45187</v>
+        <v>45167</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11:22</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>17.1</v>
+        <v>35.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="I32" t="n">
-        <v>-15.1</v>
+        <v>-20.9</v>
       </c>
       <c r="J32" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>-1208</v>
+        <v>-836</v>
       </c>
       <c r="L32" t="n">
-        <v>35.59938880000001</v>
+        <v>36.147708</v>
       </c>
     </row>
     <row r="33">
@@ -2110,42 +2104,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FINNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20200</v>
+        <v>19450</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45189</v>
+        <v>45168</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12:13</t>
+          <t>14:32</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>121.65</v>
+        <v>37.7</v>
       </c>
       <c r="H33" t="n">
-        <v>133.65</v>
+        <v>14.75</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>-22.95</v>
       </c>
       <c r="J33" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K33" t="n">
-        <v>480</v>
+        <v>-1147.5</v>
       </c>
       <c r="L33" t="n">
-        <v>42.66207828000001</v>
+        <v>36.31905775</v>
       </c>
     </row>
     <row r="34">
@@ -2156,42 +2150,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20000</v>
+        <v>44600</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45189</v>
+        <v>45168</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10:29</t>
+          <t>10:33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>13:47</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>52.35</v>
+        <v>120.65</v>
       </c>
       <c r="H34" t="n">
-        <v>26</v>
+        <v>289.1</v>
       </c>
       <c r="I34" t="n">
-        <v>-26.35</v>
+        <v>168.45</v>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K34" t="n">
-        <v>-1317.5</v>
+        <v>2526.75</v>
       </c>
       <c r="L34" t="n">
-        <v>37.020034</v>
+        <v>43.96249707</v>
       </c>
     </row>
     <row r="35">
@@ -2202,42 +2196,42 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NIFTY</t>
+          <t>BANKNIFTY</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19750</v>
+        <v>44100</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45190</v>
+        <v>45169</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12:04</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14:41</t>
+          <t>14:15</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>9.199999999999999</v>
+        <v>78.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>-7.199999999999999</v>
+        <v>-67.45</v>
       </c>
       <c r="J35" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="K35" t="n">
-        <v>-359.9999999999999</v>
+        <v>-1011.75</v>
       </c>
       <c r="L35" t="n">
-        <v>35.524618</v>
+        <v>35.6056197</v>
       </c>
     </row>
     <row r="36">
@@ -2248,42 +2242,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
+          <t>NIFTY</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>45000</v>
+        <v>19300</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45190</v>
+        <v>45169</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12:08</t>
+          <t>10:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15:05</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>327.8</v>
+        <v>30.9</v>
       </c>
       <c r="H36" t="n">
-        <v>421.85</v>
+        <v>6.9</v>
       </c>
       <c r="I36" t="n">
-        <v>94.05000000000001</v>
+        <v>-24</v>
       </c>
       <c r="J36" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>1410.75</v>
+        <v>-1200</v>
       </c>
       <c r="L36" t="n">
-        <v>45.048952995</v>
+        <v>35.8299321</v>
       </c>
     </row>
     <row r="37">
@@ -2294,42 +2288,48 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>45000</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45191</v>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>19350</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>45170</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>11:37</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>280.85</v>
-      </c>
-      <c r="H37" t="n">
-        <v>295</v>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
       </c>
       <c r="I37" t="n">
-        <v>14.14999999999998</v>
+        <v>-14.09999999999999</v>
       </c>
       <c r="J37" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="K37" t="n">
-        <v>212.2499999999997</v>
+        <v>-704.9999999999998</v>
       </c>
       <c r="L37" t="n">
-        <v>41.179659</v>
+        <v>40.33175735</v>
       </c>
     </row>
     <row r="38">
@@ -2340,606 +2340,48 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>19800</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45191</v>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>45170</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>10:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13:18</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>85.95</v>
-      </c>
-      <c r="H38" t="n">
-        <v>86</v>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>71.55</t>
+        </is>
       </c>
       <c r="I38" t="n">
-        <v>0.04999999999999716</v>
+        <v>-14.05</v>
       </c>
       <c r="J38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K38" t="n">
-        <v>2.499999999999858</v>
+        <v>-561.9999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>40.76169899999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>19600</v>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>108.35</v>
-      </c>
-      <c r="H39" t="n">
-        <v>110</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.650000000000006</v>
-      </c>
-      <c r="J39" t="n">
-        <v>50</v>
-      </c>
-      <c r="K39" t="n">
-        <v>82.50000000000028</v>
-      </c>
-      <c r="L39" t="n">
-        <v>42.35711499999999</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>44400</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>10:38</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>211.6</v>
-      </c>
-      <c r="H40" t="n">
-        <v>162.95</v>
-      </c>
-      <c r="I40" t="n">
-        <v>-48.65000000000001</v>
-      </c>
-      <c r="J40" t="n">
-        <v>15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-729.7500000000001</v>
-      </c>
-      <c r="L40" t="n">
-        <v>38.445975465</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>47</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-20.3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>50</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-1015</v>
-      </c>
-      <c r="L41" t="n">
-        <v>38.328523</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>44600</v>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="H42" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-63.40000000000001</v>
-      </c>
-      <c r="J42" t="n">
-        <v>15</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-951.0000000000001</v>
-      </c>
-      <c r="L42" t="n">
-        <v>38.43756375</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>67.3</v>
-      </c>
-      <c r="H43" t="n">
-        <v>47</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-20.3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>50</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-1015</v>
-      </c>
-      <c r="L43" t="n">
-        <v>38.328523</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>44600</v>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>45195</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>12:46</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>225.9</v>
-      </c>
-      <c r="H44" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-63.40000000000001</v>
-      </c>
-      <c r="J44" t="n">
-        <v>15</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-951.0000000000001</v>
-      </c>
-      <c r="L44" t="n">
-        <v>38.43756375</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>19550</v>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>14:20</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>58.15</v>
-      </c>
-      <c r="H45" t="n">
-        <v>141.45</v>
-      </c>
-      <c r="I45" t="n">
-        <v>83.29999999999998</v>
-      </c>
-      <c r="J45" t="n">
-        <v>50</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4164.999999999999</v>
-      </c>
-      <c r="L45" t="n">
-        <v>49.41985805</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>44200</v>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45196</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>10:35</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>11:09</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>112</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-78.90000000000001</v>
-      </c>
-      <c r="J46" t="n">
-        <v>15</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-1183.5</v>
-      </c>
-      <c r="L46" t="n">
-        <v>37.4935824</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>44700</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10:23</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>11:47</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>119.1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>261.05</v>
-      </c>
-      <c r="I47" t="n">
-        <v>141.95</v>
-      </c>
-      <c r="J47" t="n">
-        <v>15</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2129.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>42.941291835</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>19650</v>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45197</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>13:23</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-23.95</v>
-      </c>
-      <c r="J48" t="n">
-        <v>50</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-1197.5</v>
-      </c>
-      <c r="L48" t="n">
-        <v>35.711545</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>FINNIFTY</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>19800</t>
-        </is>
-      </c>
-      <c r="D49" s="3" t="n">
-        <v>45198</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>54.65</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>61.95</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>7.300000000000004</v>
-      </c>
-      <c r="J49" t="n">
-        <v>40</v>
-      </c>
-      <c r="K49" t="n">
-        <v>292.0000000000002</v>
-      </c>
-      <c r="L49" t="n">
-        <v>38.85303404</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>BANKNIFTY</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>44600</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="n">
-        <v>45198</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>10:15</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>231.70</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>210.35</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>-21.34999999999999</v>
-      </c>
-      <c r="J50" t="n">
-        <v>15</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-320.2499999999999</v>
-      </c>
-      <c r="L50" t="n">
-        <v>39.33200944499999</v>
+        <v>38.96656716</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3036,25 +2478,25 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>19400.95</v>
+        <v>19320</v>
       </c>
       <c r="D2" t="n">
-        <v>19410.8</v>
+        <v>19341</v>
       </c>
       <c r="E2" t="n">
-        <v>12.3</v>
+        <v>20.05</v>
       </c>
       <c r="F2" t="n">
-        <v>8.4</v>
+        <v>13.15</v>
       </c>
       <c r="G2" t="n">
-        <v>5.949999999998544</v>
+        <v>14.1</v>
       </c>
       <c r="H2" t="n">
-        <v>594.9999999998545</v>
+        <v>1410</v>
       </c>
       <c r="I2" t="n">
-        <v>570.0298522400001</v>
+        <v>569.5919725</v>
       </c>
     </row>
     <row r="3">
@@ -3067,25 +2509,25 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>19382</v>
+        <v>19338.95</v>
       </c>
       <c r="D3" t="n">
-        <v>19389.85</v>
+        <v>19405</v>
       </c>
       <c r="E3" t="n">
-        <v>18.2</v>
+        <v>13.95</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3</v>
+        <v>4.45</v>
       </c>
       <c r="G3" t="n">
-        <v>1.949999999998546</v>
+        <v>56.54999999999927</v>
       </c>
       <c r="H3" t="n">
-        <v>194.9999999998546</v>
+        <v>5654.999999999927</v>
       </c>
       <c r="I3" t="n">
-        <v>570.2067703299999</v>
+        <v>569.4520391000001</v>
       </c>
     </row>
     <row r="4">
@@ -3098,304 +2540,56 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>19382</v>
+        <v>19335.1</v>
       </c>
       <c r="D4" t="n">
-        <v>19389.85</v>
+        <v>19357.3</v>
       </c>
       <c r="E4" t="n">
-        <v>18.2</v>
+        <v>6.35</v>
       </c>
       <c r="F4" t="n">
-        <v>12.3</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>1.949999999998546</v>
+        <v>18.00000000000073</v>
       </c>
       <c r="H4" t="n">
-        <v>194.9999999998546</v>
+        <v>1800.000000000073</v>
       </c>
       <c r="I4" t="n">
-        <v>570.2067703299999</v>
+        <v>568.4616614399999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BULLISH</t>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>20040</v>
+        <v>19424.35</v>
       </c>
       <c r="D5" t="n">
-        <v>20021.05</v>
+        <v>19403.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23.65</v>
+        <v>86.17</v>
       </c>
       <c r="F5" t="n">
-        <v>26.8</v>
+        <v>65.62</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.80000000000073</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="H5" t="n">
-        <v>-1580.000000000073</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="I5" t="n">
-        <v>581.7200798899999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20125.15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20175.72</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="G6" t="n">
-        <v>44.11999999999971</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4411.999999999971</v>
-      </c>
-      <c r="I6" t="n">
-        <v>580.573851836</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20169.4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20198.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>29.45</v>
-      </c>
-      <c r="G7" t="n">
-        <v>22.84999999999927</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2284.999999999927</v>
-      </c>
-      <c r="I7" t="n">
-        <v>584.2775801600001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19966.3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>19861.05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>97.25</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9725</v>
-      </c>
-      <c r="I8" t="n">
-        <v>575.8502718899999</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>19782.8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>19790</v>
-      </c>
-      <c r="E9" t="n">
-        <v>53.55</v>
-      </c>
-      <c r="F9" t="n">
-        <v>51.75</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-9.000000000000725</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-900.0000000000725</v>
-      </c>
-      <c r="I9" t="n">
-        <v>581.0266835</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19702.65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>19689.87</v>
-      </c>
-      <c r="E10" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F10" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9.210000000002474</v>
-      </c>
-      <c r="H10" t="n">
-        <v>921.0000000002474</v>
-      </c>
-      <c r="I10" t="n">
-        <v>575.5030390460001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19702.65</v>
-      </c>
-      <c r="D11" t="n">
-        <v>19689.87</v>
-      </c>
-      <c r="E11" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="F11" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="G11" t="n">
-        <v>9.210000000002474</v>
-      </c>
-      <c r="H11" t="n">
-        <v>921.0000000002474</v>
-      </c>
-      <c r="I11" t="n">
-        <v>575.5030390460001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19678.9</v>
-      </c>
-      <c r="D12" t="n">
-        <v>19623.15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-50.75</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-5075</v>
-      </c>
-      <c r="I12" t="n">
-        <v>574.9592308700001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19712.87</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19720.55</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-7.680000000000291</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-768.0000000000291</v>
-      </c>
-      <c r="I13" t="n">
-        <v>573.70882309</v>
+        <v>577.0542668400001</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2868,7 +2868,7 @@
           <t>3P196</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E53" t="inlineStr">
@@ -2881,15 +2881,11 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>73.65</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>61.90</t>
-        </is>
+      <c r="G53" t="n">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>61.9</v>
       </c>
       <c r="I53" t="n">
         <v>-11.75000000000001</v>
@@ -2920,7 +2916,7 @@
           <t>3P195</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="E54" t="inlineStr">
@@ -2933,15 +2929,11 @@
           <t>13:44</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>18.60</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
+      <c r="G54" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
       </c>
       <c r="I54" t="n">
         <v>-16.6</v>
@@ -2954,6 +2946,110 @@
       </c>
       <c r="L54" t="n">
         <v>35.524618</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>19750</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>10:34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10:44</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>49.00</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>40</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-576</v>
+      </c>
+      <c r="L55" t="n">
+        <v>37.84251279999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>19600</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>45205</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>11:20</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>109.40</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>111.00</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="J56" t="n">
+        <v>50</v>
+      </c>
+      <c r="K56" t="n">
+        <v>79.99999999999972</v>
+      </c>
+      <c r="L56" t="n">
+        <v>42.416299</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3505,6 +3601,37 @@
         <v>572.35771626</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19569.1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19617.12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.05</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30.82000000000044</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3082.000000000044</v>
+      </c>
+      <c r="I17" t="n">
+        <v>575.771835956</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,6 +49,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -66,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -118,6 +123,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -127,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -194,6 +214,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -725,10 +748,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R128"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -739,8 +762,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="20" min="6" max="6"/>
     <col width="8.88671875" customWidth="1" style="20" min="7" max="13"/>
     <col width="8.88671875" customWidth="1" style="14" min="14" max="14"/>
-    <col width="8.88671875" customWidth="1" style="20" min="15" max="19"/>
-    <col width="8.88671875" customWidth="1" style="20" min="20" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="20" min="15" max="22"/>
+    <col width="8.88671875" customWidth="1" style="20" min="23" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.8" customHeight="1">
@@ -8314,6 +8337,238 @@
         <f>M128-N128</f>
         <v/>
       </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>MP129</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F129" s="7" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G129" s="8" t="n">
+        <v>0.43125</v>
+      </c>
+      <c r="H129" s="8" t="n">
+        <v>0.5465277777777777</v>
+      </c>
+      <c r="I129" s="14" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="J129" s="14" t="n">
+        <v>121.15</v>
+      </c>
+      <c r="K129" s="15" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="L129" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="M129" s="14" t="n">
+        <v>1217.5</v>
+      </c>
+      <c r="N129" s="14" t="n">
+        <v>44.47061035</v>
+      </c>
+      <c r="O129" s="19" t="n">
+        <v>1173.02939</v>
+      </c>
+      <c r="P129" s="9" t="n"/>
+      <c r="Q129" s="9" t="n"/>
+      <c r="R129" s="21" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>MP130</t>
+        </is>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F130" s="7" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G130" s="8" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="H130" s="8" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="I130" s="14" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="J130" s="14" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="K130" s="15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L130" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="M130" s="14" t="n">
+        <v>252</v>
+      </c>
+      <c r="N130" s="14" t="n">
+        <v>38.01794064</v>
+      </c>
+      <c r="O130" s="19" t="n">
+        <v>213.9820594</v>
+      </c>
+      <c r="P130" s="9" t="n"/>
+      <c r="Q130" s="9" t="n"/>
+      <c r="R130" s="21" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="D131" s="21" t="n">
+        <v>19600</v>
+      </c>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F131" s="7" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G131" s="22" t="n">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="H131" s="22" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I131" s="18" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="J131" s="18" t="n">
+        <v>38</v>
+      </c>
+      <c r="K131" s="18" t="n">
+        <v>-20.15</v>
+      </c>
+      <c r="L131" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="M131" s="18" t="n">
+        <v>-1007.5</v>
+      </c>
+      <c r="N131" s="14" t="n">
+        <v>37.77</v>
+      </c>
+      <c r="O131" s="19" t="n">
+        <v>-1045.267742</v>
+      </c>
+      <c r="P131" s="21" t="n"/>
+      <c r="Q131" s="21" t="n"/>
+      <c r="R131" s="21" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="D132" s="21" t="n">
+        <v>44100</v>
+      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F132" s="7" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G132" s="22" t="n">
+        <v>0.5027777777777778</v>
+      </c>
+      <c r="H132" s="22" t="n">
+        <v>0.5652777777777778</v>
+      </c>
+      <c r="I132" s="18" t="n">
+        <v>109.85</v>
+      </c>
+      <c r="J132" s="18" t="n">
+        <v>55.15</v>
+      </c>
+      <c r="K132" s="18" t="n">
+        <v>-54.7</v>
+      </c>
+      <c r="L132" s="21" t="n">
+        <v>15</v>
+      </c>
+      <c r="M132" s="18" t="n">
+        <v>-820.5</v>
+      </c>
+      <c r="N132" s="14" t="n">
+        <v>36.43</v>
+      </c>
+      <c r="O132" s="19" t="n">
+        <v>-856.9309024</v>
+      </c>
+      <c r="P132" s="21" t="n"/>
+      <c r="Q132" s="21" t="n"/>
+      <c r="R132" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8326,7 +8581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8335,37 +8590,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="inlineStr">
+      <c r="A1" s="24" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="23" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="23" t="inlineStr">
+      <c r="D1" s="24" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="23" t="inlineStr">
+      <c r="E1" s="24" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="24" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -12844,6 +13099,146 @@
       <c r="G129" t="inlineStr">
         <is>
           <t>₹ 52,866.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>MP129</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>₹ 1,173.03</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>₹ 54,039.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>MP130</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>₹ 213.98</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>₹ 54,253.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>MP131</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>-₹ 1,045.27</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>₹ 53,208.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>MP132</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>-₹ 856.93</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>₹ 52,351.51</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="34400" windowHeight="27180" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,19 +31,11 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -66,18 +60,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -102,47 +88,37 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="number_style" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -505,187 +481,188 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.88671875" customWidth="1" style="1" min="1" max="24"/>
-    <col width="8.88671875" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
+    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
+    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
-    <row r="2" customFormat="1" s="5">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>FINNIFTY31OCT23P19150</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>LongSignal</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="n">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="5" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="5" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-2.5</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="K2" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="5" t="n">
         <v>-125</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="5" t="n">
         <v>39.92</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="5" t="n">
         <v>-164.92</v>
       </c>
     </row>
-    <row r="3" customFormat="1" s="5">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>LongSignal</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="n">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="5" t="n">
         <v>93.55</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="5" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-17.15</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="5" t="n">
         <v>-686</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="M3" s="5" t="n">
         <v>39.21</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="5" t="n">
         <v>-725.21</v>
       </c>
     </row>
@@ -711,31 +688,31 @@
       <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="5" t="n">
         <v>184.8</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>1.2</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="5" t="n">
         <v>38.9</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="5" t="n">
         <v>-20.9</v>
       </c>
     </row>
@@ -761,31 +738,31 @@
       <c r="E5" s="6" t="n">
         <v>45230.54861111111</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="5" t="n">
         <v>87.34999999999999</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="5" t="n">
         <v>67.2</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-20.15</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="5" t="n">
         <v>-1007.5</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="5" t="n">
         <v>39.59</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="5" t="n">
         <v>-1047.09</v>
       </c>
     </row>
@@ -811,31 +788,31 @@
       <c r="E6" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="5" t="n">
         <v>110.5</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="5" t="n">
         <v>83.55</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-26.95</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="5" t="n">
         <v>-1078</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="5" t="n">
         <v>39.56</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="5" t="n">
         <v>-1117.56</v>
       </c>
     </row>
@@ -861,482 +838,244 @@
       <c r="E7" s="6" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="5" t="n">
         <v>51.5</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>-49.5</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="5" t="n">
         <v>-742.5</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="5" t="n">
         <v>-777.9400000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>MP163</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY02NOV23P19100</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45232.48402777778</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45232.61944444444</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-22.5</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-1125</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>35.52</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-1160.52</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>MP164</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY08NOV23P43000</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45232.4875</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45232.59444444445</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>285.15</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>246</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-39.15</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>-587.25</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-627.25</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>MP165</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23C19250</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-03 10:58:00</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-03 11:52:00</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>111.15</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-14.25</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-712.5</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-753.9400000000001</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n"/>
-      <c r="M16" s="5" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>MP166</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>BANKNIFTY08NOV23C43400</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-03 10:58:00</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-03 11:18:00</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>247.35</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-39.25</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-588.75</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>39.29</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-628.04</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1348,82 +1087,82 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="8.88671875" customWidth="1" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="9" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="9" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="9" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="9" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="9" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="9" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
@@ -1451,31 +1190,31 @@
       <c r="E2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="5" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="5" t="n">
         <v>68.75</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-2.65</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="5" t="n">
         <v>-39.75</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="5" t="n">
         <v>-75.19</v>
       </c>
     </row>
@@ -1501,36 +1240,36 @@
       <c r="E3" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="5" t="n">
         <v>111.55</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="5" t="n">
         <v>107.7</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-3.85</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="5" t="n">
         <v>-154</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="5" t="n">
         <v>43.72</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="5" t="n">
         <v>-197.72</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1540,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,37 +1288,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="11" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -1893,6 +1632,146 @@
       <c r="G10" t="inlineStr">
         <is>
           <t>₹ 29,053.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>02-Nov-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MP163</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-₹ 1,160.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>₹ 27,893.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>02-Nov-23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MP164</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-₹ 627.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>₹ 27,266.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>03-Nov-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MP165</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-₹ 753.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>₹ 43,331.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>03-Nov-23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MP166</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-₹ 628.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>₹ 42,703.72</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="34400" windowHeight="27180" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,6 +40,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -51,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -64,6 +69,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -109,10 +129,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,11 +507,12 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,10 +603,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.44861111111</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -632,10 +653,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="3" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="3" t="n">
         <v>45229.47986111111</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -682,10 +703,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="3" t="n">
         <v>45230.5125</v>
       </c>
       <c r="F4" s="5" t="n">
@@ -732,10 +753,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="3" t="n">
         <v>45230.54861111111</v>
       </c>
       <c r="F5" s="5" t="n">
@@ -782,10 +803,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="3" t="n">
         <v>45231.62569444445</v>
       </c>
       <c r="F6" s="5" t="n">
@@ -832,10 +853,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="3" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="3" t="n">
         <v>45231.51875</v>
       </c>
       <c r="F7" s="5" t="n">
@@ -882,10 +903,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="3" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="3" t="n">
         <v>45232.61944444444</v>
       </c>
       <c r="F8" s="5" t="n">
@@ -932,10 +953,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="3" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="3" t="n">
         <v>45232.59444444445</v>
       </c>
       <c r="F9" s="5" t="n">
@@ -1087,13 +1108,14 @@
   </sheetPr>
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="1"/>
+    <col width="8.77734375" customWidth="1" style="2" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1184,10 +1206,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -1234,10 +1256,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="3" t="n">
         <v>45231.46666666667</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -1736,7 +1758,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>₹ 43,331.76</t>
+          <t>₹ 26,512.07</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1793,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>₹ 42,703.72</t>
+          <t>₹ 25,884.03</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/vinay.xlsx
+++ b/UserProfile/excel/vinay.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,16 +12,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,22 +29,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -56,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,43 +50,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -109,13 +59,16 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -123,22 +76,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -501,19 +451,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -541,27 +485,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -571,42 +515,42 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY31OCT23P19150</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -624,7 +568,7 @@
       <c r="J2" s="5" t="n">
         <v>-2.5</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>50</v>
       </c>
       <c r="L2" s="5" t="n">
@@ -638,25 +582,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -674,7 +618,7 @@
       <c r="J3" s="5" t="n">
         <v>-17.15</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="L3" s="5" t="n">
@@ -688,25 +632,25 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>MP159</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P43000</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
       <c r="F4" s="5" t="n">
@@ -724,7 +668,7 @@
       <c r="J4" s="5" t="n">
         <v>1.2</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L4" s="5" t="n">
@@ -738,25 +682,25 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>MP160</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.54861111111</v>
       </c>
       <c r="F5" s="5" t="n">
@@ -774,7 +718,7 @@
       <c r="J5" s="5" t="n">
         <v>-20.15</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>50</v>
       </c>
       <c r="L5" s="5" t="n">
@@ -788,25 +732,25 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>MP161</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
       <c r="F6" s="5" t="n">
@@ -824,7 +768,7 @@
       <c r="J6" s="5" t="n">
         <v>-26.95</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>40</v>
       </c>
       <c r="L6" s="5" t="n">
@@ -838,25 +782,25 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>MP162</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.47222222222</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.51875</v>
       </c>
       <c r="F7" s="5" t="n">
@@ -874,7 +818,7 @@
       <c r="J7" s="5" t="n">
         <v>-49.5</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L7" s="5" t="n">
@@ -888,25 +832,25 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>MP163</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
       <c r="F8" s="5" t="n">
@@ -924,7 +868,7 @@
       <c r="J8" s="5" t="n">
         <v>-22.5</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>50</v>
       </c>
       <c r="L8" s="5" t="n">
@@ -938,25 +882,25 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>MP164</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23P43000</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
       <c r="F9" s="5" t="n">
@@ -974,7 +918,7 @@
       <c r="J9" s="5" t="n">
         <v>-39.15</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L9" s="5" t="n">
@@ -988,30 +932,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>MP165</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>NIFTY09NOV23C19250</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:52:00</t>
-        </is>
+      <c r="D10" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45233.49444444444</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>111.15</v>
@@ -1028,7 +968,7 @@
       <c r="J10" s="5" t="n">
         <v>-14.25</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="3" t="n">
         <v>50</v>
       </c>
       <c r="L10" s="5" t="n">
@@ -1042,30 +982,26 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>MP166</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23C43400</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:18:00</t>
-        </is>
+      <c r="D11" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45233.47083333333</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>247.35</v>
@@ -1082,7 +1018,7 @@
       <c r="J11" s="5" t="n">
         <v>-39.25</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L11" s="5" t="n">
@@ -1093,6 +1029,260 @@
       </c>
       <c r="N11" s="5" t="n">
         <v>-628.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1109,14 +1299,10 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="1"/>
-    <col width="8.77734375" customWidth="1" style="2" min="2" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1144,27 +1330,27 @@
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
@@ -1174,42 +1360,42 @@
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Error1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
       <c r="F2" s="5" t="n">
@@ -1227,7 +1413,7 @@
       <c r="J2" s="5" t="n">
         <v>-2.65</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="3" t="n">
         <v>15</v>
       </c>
       <c r="L2" s="5" t="n">
@@ -1241,25 +1427,25 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Error2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
       <c r="F3" s="5" t="n">
@@ -1277,7 +1463,7 @@
       <c r="J3" s="5" t="n">
         <v>-3.85</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="3" t="n">
         <v>40</v>
       </c>
       <c r="L3" s="5" t="n">
@@ -1301,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1797,6 +1983,181 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹25,848.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹25,813.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹25,777.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹25,742.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹25,707.03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
